--- a/Lease_Contract_Extraction_Phase_I_2.0/Data/Final Title report _Template_91.xlsx
+++ b/Lease_Contract_Extraction_Phase_I_2.0/Data/Final Title report _Template_91.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lease_Data_101\Lease_Contract_Data\Lease_Contract_Extraction_Phase_I_2.0\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ED2DC7-871F-461D-BF05-AD245175E916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97121C9D-04C3-4B95-8590-465E93BEF77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="45" windowWidth="15330" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
   <si>
     <t>Fields</t>
   </si>
@@ -172,6 +173,96 @@
   </si>
   <si>
     <t>Docusaurus on PLOT</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>What is the Plot Number</t>
+  </si>
+  <si>
+    <t>What is the property address</t>
+  </si>
+  <si>
+    <t>How is the property described on the plan</t>
+  </si>
+  <si>
+    <t>What is the Ground Rent value</t>
+  </si>
+  <si>
+    <t>What is the Title Number in this agreement</t>
+  </si>
+  <si>
+    <t>Name and contact information of the landlord involved</t>
+  </si>
+  <si>
+    <t>What is the term of this agreement</t>
+  </si>
+  <si>
+    <t>What is the name of the Management Company and their details under 'Parties to the lease'</t>
+  </si>
+  <si>
+    <t>Which clause within the agreement outlines the specific rights granted for this property?</t>
+  </si>
+  <si>
+    <t>Which clause has the Rights reserved in favour of the Landlord and others</t>
+  </si>
+  <si>
+    <t>which is the chapter that involves money covenants for the tenant</t>
+  </si>
+  <si>
+    <t>which chapter includes maintaining and altering of property</t>
+  </si>
+  <si>
+    <t>which chapter includes disposals of your property</t>
+  </si>
+  <si>
+    <t>which chapter includes LANDLORD'S OBLIGATIONS RELATING TO CONSTRUCTION OF THE ESTATE</t>
+  </si>
+  <si>
+    <t>In which chapter MANAGEMENT COMPANY'S OBLIGATIONs are mentioned in this agreement</t>
+  </si>
+  <si>
+    <t>Name and contact information of the landlord involved.</t>
+  </si>
+  <si>
+    <t>Which specific residential unit is identified as "Your Property" within the estate?</t>
+  </si>
+  <si>
+    <t>How has the Parking space been described</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>what is the Gross Purchase Price</t>
+  </si>
+  <si>
+    <t>how much is the Reservation Fee</t>
+  </si>
+  <si>
+    <t>how much is the Document Fee</t>
+  </si>
+  <si>
+    <t>what is mentioned in the proportion of ground rent</t>
+  </si>
+  <si>
+    <t>what is mentioned in the tenure</t>
+  </si>
+  <si>
+    <t>When is the property ready for occupation?</t>
+  </si>
+  <si>
+    <t>Gross Purchse Price</t>
+  </si>
+  <si>
+    <t>Reservation Fee</t>
+  </si>
+  <si>
+    <t>Document Fee</t>
+  </si>
+  <si>
+    <t>Ground rent</t>
   </si>
   <si>
     <t>171 Kingsbrook Basin, Broughton, Aylesbury, HP22 7EP</t>
@@ -181,7 +272,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +290,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Source Sans Pro"/>
       <family val="2"/>
@@ -251,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -304,6 +401,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC5844C-B5CF-41C2-965E-642DF23508FB}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +745,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="3"/>
@@ -657,7 +759,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="3"/>
@@ -893,9 +995,181 @@
       <c r="E22" s="17"/>
       <c r="F22" s="6"/>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1700D58-D9B5-4B9D-A2C0-E27BF800016D}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="104.85546875" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
